--- a/Report/methods.xlsx
+++ b/Report/methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayton\Documents\University\Fifta_Gear\Forma_Siexmonaþ\ELEC4840A\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36042DE2-EFAC-40C5-9285-2AA0A0670EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970B08C-8078-46D2-9F81-733B413E2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{07585544-E12D-4E46-AE8C-97FC665E4C93}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
   <si>
     <t>Paper</t>
   </si>
   <si>
-    <t>Kind</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>Salvati et al., 2019 \cite{salvati_power_2019}</t>
   </si>
   <si>
-    <t>2.5 \si{\deg} (RMS) \footnote{at worst for a single source at -10 \si{dB}}</t>
-  </si>
-  <si>
     <t>5 \si{\deg}</t>
   </si>
   <si>
@@ -426,6 +420,54 @@
   </si>
   <si>
     <t>0.24 \si{m} overall</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A. MSE</t>
+  </si>
+  <si>
+    <t>A. RMSE</t>
+  </si>
+  <si>
+    <t>A. Error</t>
+  </si>
+  <si>
+    <t>0.6 - 4.9</t>
+  </si>
+  <si>
+    <t>&lt; 3</t>
+  </si>
+  <si>
+    <t>4.957 - 27.21</t>
+  </si>
+  <si>
+    <t>0.05 - 9.43</t>
+  </si>
+  <si>
+    <t>D. Error</t>
+  </si>
+  <si>
+    <t>D. MSE</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>100 - 42</t>
+  </si>
+  <si>
+    <t>1.10, 0.89</t>
+  </si>
+  <si>
+    <t>2.5 \si{\deg} (RMSE) \footnote{at worst for a single source at -10 \si{dB}}</t>
+  </si>
+  <si>
+    <t>1 - 10</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -463,10 +505,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,9 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEC962C-60BA-403A-8713-E755FAE596A7}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -793,709 +838,794 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.08203125" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="82.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.4140625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.4140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="61.08203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="82.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>1.9</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11">
+        <v>1.39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>119</v>
-      </c>
-      <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="T13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" t="s">
         <v>98</v>
       </c>
-      <c r="O12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="W13" t="s">
         <v>107</v>
-      </c>
-      <c r="O13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/methods.xlsx
+++ b/Report/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayton\Documents\University\Fifta_Gear\Forma_Siexmonaþ\ELEC4840A\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970B08C-8078-46D2-9F81-733B413E2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1338406-AE19-4273-955C-7910951EDDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{07585544-E12D-4E46-AE8C-97FC665E4C93}"/>
   </bookViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEC962C-60BA-403A-8713-E755FAE596A7}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -838,12 +838,11 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.08203125" customWidth="1"/>
-    <col min="7" max="7" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.4140625" customWidth="1"/>
+    <col min="7" max="7" width="9.4140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.4140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.4140625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.4140625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.58203125" bestFit="1" customWidth="1"/>
